--- a/inst/extdata/WHO-outbreak-dict.xlsx
+++ b/inst/extdata/WHO-outbreak-dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cholera" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
   <si>
     <t>Data element UID</t>
   </si>
@@ -481,6 +481,18 @@
   </si>
   <si>
     <t>What was the clinical outcome for the patient</t>
+  </si>
+  <si>
+    <t>facility_opts</t>
+  </si>
+  <si>
+    <t>Facility A</t>
+  </si>
+  <si>
+    <t>Facility B</t>
+  </si>
+  <si>
+    <t>Facility C</t>
   </si>
 </sst>
 </file>
@@ -826,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,6 +1183,9 @@
       <c r="E21" t="s">
         <v>73</v>
       </c>
+      <c r="G21" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -1229,6 +1244,9 @@
       </c>
       <c r="E25" t="s">
         <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -1380,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,6 +1750,48 @@
         <v>89</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
